--- a/DateBase/orders/Nha Thu_2025-7-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-15.xlsx
@@ -851,6 +851,9 @@
       <c r="C49" t="str">
         <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="C50" t="str">
@@ -922,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101620962055159301320306810103610105765815105106101010115155105565510000</v>
+        <v>035101620962055159301320306810103610105765815105106101010115155105565510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-15.xlsx
@@ -852,17 +852,23 @@
         <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
       </c>
       <c r="F49" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="str">
         <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F51" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +931,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101620962055159301320306810103610105765815105106101010115155105565510100</v>
+        <v>035101620962055159301320306810103610105765815105106101010115155105565510151515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,9 +871,62 @@
         <v>15</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>6</v>
+      </c>
+      <c r="C54" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L57"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -931,7 +984,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101620962055159301320306810103610105765815105106101010115155105565510151515</v>
+        <v>03510162096205515930132030681010361010576581510510610101011515510556551015151510515151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-15.xlsx
@@ -986,6 +986,9 @@
       <c r="G2" t="str">
         <v>03510162096205515930132030681010361010576581510510610101011515510556551015151510515151010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
